--- a/StructureDefinition-NgImmBundle.xlsx
+++ b/StructureDefinition-NgImmBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmBundle.xlsx
+++ b/StructureDefinition-NgImmBundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmBundle.xlsx
+++ b/StructureDefinition-NgImmBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmBundle.xlsx
+++ b/StructureDefinition-NgImmBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmBundle.xlsx
+++ b/StructureDefinition-NgImmBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
